--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N2">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O2">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P2">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q2">
-        <v>1333.703513162393</v>
+        <v>1433.264341848423</v>
       </c>
       <c r="R2">
-        <v>1333.703513162393</v>
+        <v>12899.37907663581</v>
       </c>
       <c r="S2">
-        <v>0.5852666376449149</v>
+        <v>0.5706531790668734</v>
       </c>
       <c r="T2">
-        <v>0.5852666376449149</v>
+        <v>0.6162794957799488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N3">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P3">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q3">
-        <v>203.3618974154977</v>
+        <v>221.046147344188</v>
       </c>
       <c r="R3">
-        <v>203.3618974154977</v>
+        <v>1989.415326097692</v>
       </c>
       <c r="S3">
-        <v>0.08924092405158589</v>
+        <v>0.0880093664646445</v>
       </c>
       <c r="T3">
-        <v>0.08924092405158589</v>
+        <v>0.09504611553629458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.30639729189841</v>
+        <v>4.3463115</v>
       </c>
       <c r="N4">
-        <v>4.30639729189841</v>
+        <v>8.692622999999999</v>
       </c>
       <c r="O4">
-        <v>0.1030157643020174</v>
+        <v>0.09835422102528193</v>
       </c>
       <c r="P4">
-        <v>0.1030157643020174</v>
+        <v>0.06779202460752111</v>
       </c>
       <c r="Q4">
-        <v>176.5270355388831</v>
+        <v>180.457141033269</v>
       </c>
       <c r="R4">
-        <v>176.5270355388831</v>
+        <v>1082.742846199614</v>
       </c>
       <c r="S4">
-        <v>0.07746503141338483</v>
+        <v>0.07184888244910001</v>
       </c>
       <c r="T4">
-        <v>0.07746503141338483</v>
+        <v>0.05172901822257873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N5">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O5">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P5">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q5">
-        <v>219.2654008127246</v>
+        <v>247.9888311648061</v>
       </c>
       <c r="R5">
-        <v>219.2654008127246</v>
+        <v>2231.899480483255</v>
       </c>
       <c r="S5">
-        <v>0.09621982893427562</v>
+        <v>0.098736576879299</v>
       </c>
       <c r="T5">
-        <v>0.09621982893427562</v>
+        <v>0.1066310152056154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H6">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I6">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J6">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N6">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O6">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P6">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q6">
-        <v>33.43338868555256</v>
+        <v>38.24624258960733</v>
       </c>
       <c r="R6">
-        <v>33.43338868555256</v>
+        <v>344.216183306466</v>
       </c>
       <c r="S6">
-        <v>0.01467151191247281</v>
+        <v>0.01522771430493764</v>
       </c>
       <c r="T6">
-        <v>0.01467151191247281</v>
+        <v>0.01644523931168415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.73919381170976</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>6.73919381170976</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.1236268558950303</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.1236268558950303</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.30639729189841</v>
+        <v>4.3463115</v>
       </c>
       <c r="N7">
-        <v>4.30639729189841</v>
+        <v>8.692622999999999</v>
       </c>
       <c r="O7">
-        <v>0.1030157643020174</v>
+        <v>0.09835422102528193</v>
       </c>
       <c r="P7">
-        <v>0.1030157643020174</v>
+        <v>0.06779202460752111</v>
       </c>
       <c r="Q7">
-        <v>29.02164598032543</v>
+        <v>31.2233788098495</v>
       </c>
       <c r="R7">
-        <v>29.02164598032543</v>
+        <v>187.340272859097</v>
       </c>
       <c r="S7">
-        <v>0.01273551504828192</v>
+        <v>0.01243156608226998</v>
       </c>
       <c r="T7">
-        <v>0.01273551504828192</v>
+        <v>0.008950350882082379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H8">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I8">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J8">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N8">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O8">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P8">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q8">
-        <v>5.669276287161494</v>
+        <v>7.935982644076665</v>
       </c>
       <c r="R8">
-        <v>5.669276287161494</v>
+        <v>71.42384379668998</v>
       </c>
       <c r="S8">
-        <v>0.00248783799226826</v>
+        <v>0.003159705849530455</v>
       </c>
       <c r="T8">
-        <v>0.00248783799226826</v>
+        <v>0.003412338700970224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H9">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I9">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J9">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N9">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O9">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P9">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q9">
-        <v>0.8644460866689407</v>
+        <v>1.223932206812</v>
       </c>
       <c r="R9">
-        <v>0.8644460866689407</v>
+        <v>11.015389861308</v>
       </c>
       <c r="S9">
-        <v>0.0003793432720068368</v>
+        <v>0.0004873077382772605</v>
       </c>
       <c r="T9">
-        <v>0.0003793432720068368</v>
+        <v>0.0005262702079856177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.174247061003226</v>
+        <v>0.229894</v>
       </c>
       <c r="H10">
-        <v>0.174247061003226</v>
+        <v>0.6896819999999999</v>
       </c>
       <c r="I10">
-        <v>0.003196467842095372</v>
+        <v>0.004044840748830231</v>
       </c>
       <c r="J10">
-        <v>0.003196467842095372</v>
+        <v>0.004225032410066655</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.30639729189841</v>
+        <v>4.3463115</v>
       </c>
       <c r="N10">
-        <v>4.30639729189841</v>
+        <v>8.692622999999999</v>
       </c>
       <c r="O10">
-        <v>0.1030157643020174</v>
+        <v>0.09835422102528193</v>
       </c>
       <c r="P10">
-        <v>0.1030157643020174</v>
+        <v>0.06779202460752111</v>
       </c>
       <c r="Q10">
-        <v>0.7503770716255496</v>
+        <v>0.9991909359809997</v>
       </c>
       <c r="R10">
-        <v>0.7503770716255496</v>
+        <v>5.995145615885999</v>
       </c>
       <c r="S10">
-        <v>0.0003292865778202752</v>
+        <v>0.0003978271610225154</v>
       </c>
       <c r="T10">
-        <v>0.0003292865778202752</v>
+        <v>0.0002864235011108129</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H11">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I11">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J11">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N11">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O11">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P11">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q11">
-        <v>17.07893776964099</v>
+        <v>21.78236120566611</v>
       </c>
       <c r="R11">
-        <v>17.07893776964099</v>
+        <v>196.041250850995</v>
       </c>
       <c r="S11">
-        <v>0.007494718567009903</v>
+        <v>0.008672631633021444</v>
       </c>
       <c r="T11">
-        <v>0.007494718567009903</v>
+        <v>0.009366047970894334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H12">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I12">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J12">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N12">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O12">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P12">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q12">
-        <v>2.604180881581362</v>
+        <v>3.359399158959333</v>
       </c>
       <c r="R12">
-        <v>2.604180881581362</v>
+        <v>30.234592430634</v>
       </c>
       <c r="S12">
-        <v>0.001142787863524742</v>
+        <v>0.001337542387569888</v>
       </c>
       <c r="T12">
-        <v>0.001142787863524742</v>
+        <v>0.001444484983933265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.524926738560301</v>
+        <v>0.6310036666666666</v>
       </c>
       <c r="H13">
-        <v>0.524926738560301</v>
+        <v>1.893011</v>
       </c>
       <c r="I13">
-        <v>0.009629496357662767</v>
+        <v>0.01110211377241086</v>
       </c>
       <c r="J13">
-        <v>0.009629496357662767</v>
+        <v>0.011596696488545</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.30639729189841</v>
+        <v>4.3463115</v>
       </c>
       <c r="N13">
-        <v>4.30639729189841</v>
+        <v>8.692622999999999</v>
       </c>
       <c r="O13">
-        <v>0.1030157643020174</v>
+        <v>0.09835422102528193</v>
       </c>
       <c r="P13">
-        <v>0.1030157643020174</v>
+        <v>0.06779202460752111</v>
       </c>
       <c r="Q13">
-        <v>2.260543085381145</v>
+        <v>2.7425384929755</v>
       </c>
       <c r="R13">
-        <v>2.260543085381145</v>
+        <v>16.455230957853</v>
       </c>
       <c r="S13">
-        <v>0.0009919899271281232</v>
+        <v>0.001091939751819524</v>
       </c>
       <c r="T13">
-        <v>0.0009919899271281232</v>
+        <v>0.000786163533717396</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H14">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I14">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J14">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.5358502721405</v>
+        <v>34.52018166666667</v>
       </c>
       <c r="N14">
-        <v>32.5358502721405</v>
+        <v>103.560545</v>
       </c>
       <c r="O14">
-        <v>0.7783084689622326</v>
+        <v>0.7811694070883366</v>
       </c>
       <c r="P14">
-        <v>0.7783084689622326</v>
+        <v>0.8076479349223241</v>
       </c>
       <c r="Q14">
-        <v>197.8894174495843</v>
+        <v>251.0297427346408</v>
       </c>
       <c r="R14">
-        <v>197.8894174495843</v>
+        <v>1506.178456407845</v>
       </c>
       <c r="S14">
-        <v>0.08683944582376382</v>
+        <v>0.09994731365961229</v>
       </c>
       <c r="T14">
-        <v>0.08683944582376382</v>
+        <v>0.0719590372648954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H15">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I15">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J15">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.96103682720328</v>
+        <v>5.323898</v>
       </c>
       <c r="N15">
-        <v>4.96103682720328</v>
+        <v>15.971694</v>
       </c>
       <c r="O15">
-        <v>0.1186757667357501</v>
+        <v>0.1204763718863815</v>
       </c>
       <c r="P15">
-        <v>0.1186757667357501</v>
+        <v>0.1245600404701547</v>
       </c>
       <c r="Q15">
-        <v>30.17399820412327</v>
+        <v>38.715229201009</v>
       </c>
       <c r="R15">
-        <v>30.17399820412327</v>
+        <v>232.291375206054</v>
       </c>
       <c r="S15">
-        <v>0.0132411996361598</v>
+        <v>0.01541444099095218</v>
       </c>
       <c r="T15">
-        <v>0.0132411996361598</v>
+        <v>0.01109793043025707</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.08219597134768</v>
+        <v>7.2719705</v>
       </c>
       <c r="H16">
-        <v>6.08219597134768</v>
+        <v>14.543941</v>
       </c>
       <c r="I16">
-        <v>0.1115745867953259</v>
+        <v>0.1279457602316344</v>
       </c>
       <c r="J16">
-        <v>0.1115745867953259</v>
+        <v>0.08909703616318426</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.30639729189841</v>
+        <v>4.3463115</v>
       </c>
       <c r="N16">
-        <v>4.30639729189841</v>
+        <v>8.692622999999999</v>
       </c>
       <c r="O16">
-        <v>0.1030157643020174</v>
+        <v>0.09835422102528193</v>
       </c>
       <c r="P16">
-        <v>0.1030157643020174</v>
+        <v>0.06779202460752111</v>
       </c>
       <c r="Q16">
-        <v>26.19235225980707</v>
+        <v>31.60624901181075</v>
       </c>
       <c r="R16">
-        <v>26.19235225980707</v>
+        <v>126.424996047243</v>
       </c>
       <c r="S16">
-        <v>0.01149394133540228</v>
+        <v>0.01258400558106989</v>
       </c>
       <c r="T16">
-        <v>0.01149394133540228</v>
+        <v>0.006040068468031786</v>
       </c>
     </row>
   </sheetData>
